--- a/biology/Zoologie/Grisin_de_Cayenne/Grisin_de_Cayenne.xlsx
+++ b/biology/Zoologie/Grisin_de_Cayenne/Grisin_de_Cayenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formicivora grisea
 Le Grisin de Cayenne (Formicivora grisea) est une espèce de passereaux de la famille des Thamnophilidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, au Guyana, en Guyane et au Suriname[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, au Guyana, en Guyane et au Suriname.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (9 avril 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (9 avril 2024) :
 Formicivora grisea grisea (Boddaert, 1783) — plateau des Guyanes et Est du Brésil
 Formicivora grisea rufiventris Carriker, 1936 — Est de la Colombie et Sud du Venezuela</t>
         </is>
@@ -575,12 +591,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Formicivora grisea (Boddaert, 1783)[3].
-L'espèce a été initialement classée dans le genre Turdus sous le protonyme Turdus griseus Boddaert, 1783[3],[4].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grisin de Cayenne[3],[5].
-Formicivora grisea a pour synonyme[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Formicivora grisea (Boddaert, 1783).
+L'espèce a été initialement classée dans le genre Turdus sous le protonyme Turdus griseus Boddaert, 1783,.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grisin de Cayenne,.
+Formicivora grisea a pour synonyme :
 Turdus griseus Boddaert, 1783</t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boddaert, Table des planches enluminéez d'histoire naturelle de M. D'Aubenton : avec les denominations de M.M. de Buffon, Brisson, Edwards, Linnaeus et Latham, precedé d'une notice des principaux ouvrages zoologiques enluminés, Utrecht, 1783, 58 p. (lire en ligne), p. 39 (n°643).</t>
         </is>
